--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_yyyymm_total/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_yyyymm_total/expected_result.xlsx
@@ -478,7 +478,7 @@
         <v>43101</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>9889.76</v>
+        <v>6938.57</v>
       </c>
     </row>
     <row r="3">
@@ -487,7 +487,7 @@
         <v>43132</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>24246.6</v>
+        <v>31593.57</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>43160</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>44718.44</v>
+        <v>26095.18</v>
       </c>
     </row>
     <row r="5">
@@ -505,7 +505,7 @@
         <v>43191</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>34529.07</v>
+        <v>29898.62</v>
       </c>
     </row>
     <row r="6">
@@ -514,7 +514,7 @@
         <v>43221</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>813.38</v>
+        <v>21931.64</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>43252</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>16244.05</v>
+        <v>36262.12</v>
       </c>
     </row>
     <row r="8">
@@ -532,7 +532,7 @@
         <v>43282</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>43161.73</v>
+        <v>29402.6</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         <v>43313</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>32316.83</v>
+        <v>40264.88</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +550,7 @@
         <v>43344</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>38899.77</v>
+        <v>55840.55</v>
       </c>
     </row>
     <row r="11">
@@ -559,7 +559,7 @@
         <v>43374</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16475.84</v>
+        <v>22885.56</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>43405</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>42045.9</v>
+        <v>27443.33</v>
       </c>
     </row>
     <row r="13">
@@ -577,7 +577,7 @@
         <v>43435</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>16661.8</v>
+        <v>17464.39</v>
       </c>
     </row>
     <row r="14">
@@ -588,7 +588,7 @@
         <v>43466</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>54458.67</v>
+        <v>37278.68</v>
       </c>
     </row>
     <row r="15">
@@ -597,7 +597,7 @@
         <v>43497</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52745.83</v>
+        <v>10839.46</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +606,7 @@
         <v>43525</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6693.12</v>
+        <v>19073.24</v>
       </c>
     </row>
     <row r="17">
@@ -615,7 +615,7 @@
         <v>43556</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>44590.98</v>
+        <v>27809.29</v>
       </c>
     </row>
     <row r="18">
@@ -624,7 +624,7 @@
         <v>43586</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>42408.82</v>
+        <v>35978.57</v>
       </c>
     </row>
     <row r="19">
@@ -633,7 +633,7 @@
         <v>43617</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>26155.14</v>
+        <v>28929.62</v>
       </c>
     </row>
     <row r="20">
@@ -642,7 +642,7 @@
         <v>43647</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>34852.8</v>
+        <v>36575.22</v>
       </c>
     </row>
     <row r="21">
@@ -651,7 +651,7 @@
         <v>43678</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20523.54</v>
+        <v>45443.31</v>
       </c>
     </row>
     <row r="22">
@@ -660,7 +660,7 @@
         <v>43709</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>26879.13</v>
+        <v>33667.9</v>
       </c>
     </row>
     <row r="23">
@@ -669,7 +669,7 @@
         <v>43739</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>62073.41</v>
+        <v>4841.31</v>
       </c>
     </row>
     <row r="24">
@@ -678,7 +678,7 @@
         <v>43770</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23452.83</v>
+        <v>46983.03</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         <v>43800</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>9075.32</v>
+        <v>12647.94</v>
       </c>
     </row>
     <row r="26">
@@ -698,7 +698,7 @@
         <v>43831</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>34497.33</v>
+        <v>14588.06</v>
       </c>
     </row>
     <row r="27">
@@ -707,7 +707,7 @@
         <v>43862</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>33815.87</v>
+        <v>24061.73</v>
       </c>
     </row>
     <row r="28">
@@ -716,7 +716,7 @@
         <v>43891</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>30227.5</v>
+        <v>44763.34</v>
       </c>
     </row>
     <row r="29">
@@ -725,7 +725,7 @@
         <v>43922</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>26726.3</v>
+        <v>30012.71</v>
       </c>
     </row>
     <row r="30">
@@ -734,7 +734,7 @@
         <v>43952</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>22726.32</v>
+        <v>41256.33</v>
       </c>
     </row>
     <row r="31">
@@ -743,7 +743,7 @@
         <v>43983</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>28613</v>
+        <v>26373.18</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         <v>44013</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>53687.68</v>
+        <v>45724.01</v>
       </c>
     </row>
     <row r="33">
@@ -761,7 +761,7 @@
         <v>44044</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>22692.03</v>
+        <v>55139.97</v>
       </c>
     </row>
     <row r="34">
@@ -770,7 +770,7 @@
         <v>44075</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>32700.06</v>
+        <v>38120.45</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         <v>44105</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>54661.81</v>
+        <v>37892.87</v>
       </c>
     </row>
     <row r="36">
@@ -788,7 +788,7 @@
         <v>44136</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>40582.14</v>
+        <v>30379.93</v>
       </c>
     </row>
     <row r="37">
@@ -797,7 +797,7 @@
         <v>44166</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>18353.53</v>
+        <v>18333.4</v>
       </c>
     </row>
     <row r="38">
@@ -808,7 +808,7 @@
         <v>44197</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>49185.61</v>
+        <v>25470.42</v>
       </c>
     </row>
     <row r="39">
@@ -817,7 +817,7 @@
         <v>44228</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>46894.38</v>
+        <v>8455.67</v>
       </c>
     </row>
     <row r="40">
@@ -826,7 +826,7 @@
         <v>44256</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>37048.74</v>
+        <v>10870.45</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +835,7 @@
         <v>44287</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>35313.26</v>
+        <v>28135.31</v>
       </c>
     </row>
     <row r="42">
@@ -844,7 +844,7 @@
         <v>44317</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>51021.41</v>
+        <v>7530.32</v>
       </c>
     </row>
     <row r="43">
@@ -853,7 +853,7 @@
         <v>44348</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>39989.32</v>
+        <v>20997.75</v>
       </c>
     </row>
     <row r="44">
@@ -862,7 +862,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>36442.14</v>
+        <v>33761.34</v>
       </c>
     </row>
     <row r="45">
@@ -871,7 +871,7 @@
         <v>44409</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>35071.93</v>
+        <v>22188.43</v>
       </c>
     </row>
     <row r="46">
@@ -880,7 +880,7 @@
         <v>44440</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>52781.28</v>
+        <v>22564.18</v>
       </c>
     </row>
     <row r="47">
@@ -889,7 +889,7 @@
         <v>44470</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10231.03</v>
+        <v>29204.21</v>
       </c>
     </row>
     <row r="48">
@@ -898,7 +898,7 @@
         <v>44501</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>33869.54</v>
+        <v>36147.46</v>
       </c>
     </row>
     <row r="49">
@@ -907,7 +907,7 @@
         <v>44531</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>59998.23</v>
+        <v>26481.21</v>
       </c>
     </row>
     <row r="50">
@@ -918,7 +918,7 @@
         <v>44562</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>17294.25</v>
+        <v>45537.84</v>
       </c>
     </row>
     <row r="51">
@@ -927,7 +927,7 @@
         <v>44593</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>55035.82</v>
+        <v>34453.99</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>44621</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>10082.35</v>
+        <v>29874.33</v>
       </c>
     </row>
     <row r="53">
@@ -945,7 +945,7 @@
         <v>44652</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>24440.81</v>
+        <v>30130.7</v>
       </c>
     </row>
     <row r="54">
@@ -954,7 +954,7 @@
         <v>44682</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1873.54</v>
+        <v>36365.53</v>
       </c>
     </row>
     <row r="55">
@@ -963,7 +963,7 @@
         <v>44713</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>47059.8</v>
+        <v>40182.31</v>
       </c>
     </row>
     <row r="56">
@@ -972,7 +972,7 @@
         <v>44743</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>5850.58</v>
+        <v>43866.42</v>
       </c>
     </row>
     <row r="57">
@@ -981,7 +981,7 @@
         <v>44774</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>17574.95</v>
+        <v>25879</v>
       </c>
     </row>
     <row r="58">
@@ -990,7 +990,7 @@
         <v>44805</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>16570.55</v>
+        <v>58971.53</v>
       </c>
     </row>
     <row r="59">
@@ -999,7 +999,7 @@
         <v>44835</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>41945.81</v>
+        <v>27611.15</v>
       </c>
     </row>
     <row r="60">
@@ -1008,7 +1008,7 @@
         <v>44866</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>31693.83</v>
+        <v>27245.76</v>
       </c>
     </row>
     <row r="61">
@@ -1017,7 +1017,7 @@
         <v>44896</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>56946.64</v>
+        <v>26341.62</v>
       </c>
     </row>
     <row r="62">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" s="6" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
